--- a/grad_banjaluka/djeciji_vrtici/bl_vrtici.xlsx
+++ b/grad_banjaluka/djeciji_vrtici/bl_vrtici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoogleDrive\Learning\opendata\open-data\grad_banjaluka\djeciji_vrtici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83648B-BCBC-4EB4-B6AF-60A34D66C0EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A064E35-6400-477D-A7EF-1B751ECCCDBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{66D21305-4DCD-45D4-B63F-60C9BAEEDD89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="292">
   <si>
     <t>telefon</t>
   </si>
@@ -321,9 +321,6 @@
     <t>+387 65 512 100</t>
   </si>
   <si>
-    <t>dijana.sormaz@gmail.com</t>
-  </si>
-  <si>
     <t>http://www.pertlica.com/</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>+387 66 070 000</t>
   </si>
   <si>
-    <t>novivrtic.bl@hotmail.com</t>
-  </si>
-  <si>
     <t>vrticcarobnisvijet1@gmail.com</t>
   </si>
   <si>
@@ -898,16 +892,33 @@
   </si>
   <si>
     <t>Drakulić</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> info@vrticsreca.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@vrticliliput.ba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.vrticliliput.ba/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -930,13 +941,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1251,36 +1265,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8082B26A-0C56-4199-9B67-77FB7D9D35DE}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>133</v>
-      </c>
-      <c r="G1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1289,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1297,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1326,13 +1340,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1358,16 +1372,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1390,16 +1404,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1422,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1454,16 +1468,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -1486,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1518,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1547,16 +1561,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
         <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" t="s">
-        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -1579,10 +1593,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1611,13 +1625,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -1643,10 +1657,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1675,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -1707,13 +1721,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1739,10 +1753,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -1771,16 +1785,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
         <v>164</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>166</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1803,16 +1817,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" t="s">
-        <v>169</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1835,10 +1849,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -1867,16 +1881,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1899,16 +1913,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1931,16 +1945,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" t="s">
         <v>173</v>
-      </c>
-      <c r="D22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" t="s">
-        <v>175</v>
       </c>
       <c r="G22">
         <v>44.777412900000002</v>
@@ -1960,16 +1974,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1992,16 +2006,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2024,16 +2038,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G25">
         <v>44.759167900000001</v>
@@ -2053,10 +2067,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -2082,16 +2096,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G27">
         <v>44.759467399999998</v>
@@ -2108,13 +2122,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -2137,16 +2151,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
         <v>186</v>
       </c>
-      <c r="C29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" t="s">
-        <v>188</v>
-      </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G29">
         <v>44.760937200000001</v>
@@ -2166,16 +2180,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
         <v>189</v>
-      </c>
-      <c r="D30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" t="s">
-        <v>191</v>
       </c>
       <c r="G30">
         <v>44.794199200000001</v>
@@ -2195,16 +2209,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G31">
         <v>44.789886600000003</v>
@@ -2224,16 +2238,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G32">
         <v>44.7647233</v>
@@ -2253,16 +2267,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -2279,16 +2293,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G34">
         <v>44.776728800000001</v>
@@ -2308,10 +2322,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
@@ -2331,13 +2345,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
         <v>89</v>
@@ -2349,7 +2363,7 @@
         <v>17.211229400000001</v>
       </c>
       <c r="I36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
         <v>90</v>
@@ -2360,16 +2374,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" t="s">
         <v>203</v>
-      </c>
-      <c r="D37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" t="s">
-        <v>205</v>
       </c>
       <c r="G37">
         <v>44.855487799999999</v>
@@ -2386,13 +2400,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
@@ -2409,13 +2423,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
@@ -2428,9 +2442,6 @@
       </c>
       <c r="I39" t="s">
         <v>92</v>
-      </c>
-      <c r="K39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2438,10 +2449,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
         <v>94</v>
@@ -2461,8 +2472,8 @@
       <c r="I40" t="s">
         <v>95</v>
       </c>
-      <c r="K40" t="s">
-        <v>96</v>
+      <c r="K40" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2470,16 +2481,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G41">
         <v>44.777863500000002</v>
@@ -2491,10 +2502,10 @@
         <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
-      </c>
-      <c r="K41" t="s">
-        <v>99</v>
+        <v>289</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2502,19 +2513,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G42">
         <v>44.771425000000001</v>
@@ -2523,13 +2534,13 @@
         <v>17.188410699999999</v>
       </c>
       <c r="I42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" t="s">
         <v>101</v>
       </c>
-      <c r="J42" t="s">
-        <v>102</v>
-      </c>
-      <c r="K42" t="s">
-        <v>103</v>
+      <c r="K42" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2537,13 +2548,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -2555,7 +2566,10 @@
         <v>17.188410699999999</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2563,16 +2577,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2584,10 +2598,10 @@
         <v>17.190159600000001</v>
       </c>
       <c r="I44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" t="s">
         <v>107</v>
-      </c>
-      <c r="J44" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2595,16 +2609,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G45">
         <v>44.784754300000003</v>
@@ -2613,10 +2627,10 @@
         <v>17.190159600000001</v>
       </c>
       <c r="I45" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" t="s">
         <v>109</v>
-      </c>
-      <c r="J45" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2624,16 +2638,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G46">
         <v>44.784816200000002</v>
@@ -2642,10 +2656,10 @@
         <v>17.1878937</v>
       </c>
       <c r="I46" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" t="s">
         <v>111</v>
-      </c>
-      <c r="K46" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2653,16 +2667,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G47">
         <v>44.778106399999999</v>
@@ -2671,10 +2685,10 @@
         <v>17.1802104</v>
       </c>
       <c r="I47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" t="s">
         <v>113</v>
-      </c>
-      <c r="J47" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2682,16 +2696,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G48">
         <v>44.764851399999998</v>
@@ -2700,21 +2714,21 @@
         <v>17.174826599999999</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
@@ -2726,27 +2740,27 @@
         <v>17.2090596</v>
       </c>
       <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" t="s">
         <v>117</v>
       </c>
-      <c r="J49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G50">
         <v>44.761476600000002</v>
@@ -2755,27 +2769,30 @@
         <v>17.200635299999998</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" t="s">
         <v>228</v>
-      </c>
-      <c r="D51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" t="s">
-        <v>230</v>
       </c>
       <c r="G51">
         <v>44.818377099999999</v>
@@ -2784,27 +2801,27 @@
         <v>17.192118900000001</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
         <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52">
         <v>44.836140299999997</v>
@@ -2813,24 +2830,24 @@
         <v>17.218762699999999</v>
       </c>
       <c r="I52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -2842,24 +2859,24 @@
         <v>17.1937216</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
@@ -2871,24 +2888,24 @@
         <v>17.205378899999999</v>
       </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
@@ -2900,18 +2917,18 @@
         <v>17.184132999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
@@ -2923,27 +2940,27 @@
         <v>17.1855273</v>
       </c>
       <c r="I56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G57">
         <v>44.763704099999998</v>
@@ -2952,27 +2969,27 @@
         <v>17.200903400000001</v>
       </c>
       <c r="I57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G58">
         <v>44.790616300000003</v>
@@ -2981,27 +2998,27 @@
         <v>17.185834</v>
       </c>
       <c r="I58" t="s">
+        <v>108</v>
+      </c>
+      <c r="J58" t="s">
         <v>109</v>
       </c>
-      <c r="J58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G59">
         <v>44.787807999999998</v>
@@ -3010,24 +3027,24 @@
         <v>17.173588599999999</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J59" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E60" t="s">
         <v>89</v>
@@ -3039,21 +3056,21 @@
         <v>17.2044563</v>
       </c>
       <c r="I60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -3065,27 +3082,27 @@
         <v>17.1877633</v>
       </c>
       <c r="I61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G62">
         <v>44.775020599999998</v>
@@ -3094,24 +3111,24 @@
         <v>17.170379799999999</v>
       </c>
       <c r="I62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E63" t="s">
         <v>25</v>
@@ -3123,27 +3140,27 @@
         <v>17.193721499999999</v>
       </c>
       <c r="I63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J63" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G64">
         <v>44.779763000000003</v>
@@ -3152,10 +3169,10 @@
         <v>17.1899555</v>
       </c>
       <c r="I64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3163,16 +3180,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
         <v>265</v>
-      </c>
-      <c r="D65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" t="s">
-        <v>267</v>
       </c>
       <c r="G65">
         <v>44.763871799999997</v>
@@ -3181,10 +3198,10 @@
         <v>17.2282121</v>
       </c>
       <c r="I65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3192,16 +3209,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G66">
         <v>44.7667571</v>
@@ -3210,10 +3227,10 @@
         <v>17.226180200000002</v>
       </c>
       <c r="I66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3221,16 +3238,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G67">
         <v>44.766566900000001</v>
@@ -3239,10 +3256,10 @@
         <v>17.205927200000001</v>
       </c>
       <c r="I67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3250,19 +3267,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" t="s">
         <v>278</v>
       </c>
-      <c r="D68" t="s">
+      <c r="I68" t="s">
         <v>279</v>
-      </c>
-      <c r="E68" t="s">
-        <v>280</v>
-      </c>
-      <c r="I68" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3270,16 +3287,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G69">
         <v>44.766430700000001</v>
@@ -3288,10 +3305,10 @@
         <v>17.2148906</v>
       </c>
       <c r="I69" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3299,16 +3316,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G70">
         <v>44.766430700000001</v>
@@ -3317,10 +3334,10 @@
         <v>17.2148906</v>
       </c>
       <c r="I70" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3328,16 +3345,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G71">
         <v>44.7939942</v>
@@ -3346,7 +3363,7 @@
         <v>17.194184199999999</v>
       </c>
       <c r="I71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3363,6 +3380,12 @@
     <hyperlink ref="J67" r:id="rId10" xr:uid="{56FD9231-A37C-4E07-A230-7AEDBC0FC0EC}"/>
     <hyperlink ref="J69" r:id="rId11" xr:uid="{7D64D893-3F6E-40EA-A060-F7C1EC70F4AC}"/>
     <hyperlink ref="J70" r:id="rId12" xr:uid="{4F6B4BBA-97FF-4F91-B4B6-819356B2C37F}"/>
+    <hyperlink ref="K43" r:id="rId13" xr:uid="{56A259E6-AA4F-49DB-A75F-42A89345B190}"/>
+    <hyperlink ref="K42" r:id="rId14" xr:uid="{37897047-6DD3-429A-A0BF-5A1DB296E265}"/>
+    <hyperlink ref="K41" r:id="rId15" xr:uid="{BE3E6279-887B-4098-BF3F-50A4B1794410}"/>
+    <hyperlink ref="K40" r:id="rId16" xr:uid="{EDAF25CE-0E5C-40A6-8024-2F37F632AAFF}"/>
+    <hyperlink ref="J50" r:id="rId17" xr:uid="{31B14FE3-874F-42CB-990C-FE21C0DD7F88}"/>
+    <hyperlink ref="K50" r:id="rId18" xr:uid="{4BF37A8B-BC29-49FC-A487-E8E1884A918E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
